--- a/pinyougou系统架构图.xlsx
+++ b/pinyougou系统架构图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2019-11-8" sheetId="14" r:id="rId1"/>
@@ -114,8 +114,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -136,6 +136,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -158,17 +174,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,20 +205,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -212,14 +212,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,9 +257,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,22 +266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,7 +281,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,13 +299,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,61 +365,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,73 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +425,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +612,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -623,7 +658,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,56 +707,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -715,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,16 +727,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,115 +745,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -31367,6 +31367,67 @@
         <a:ln>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>508635</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2566035" y="909320"/>
+          <a:ext cx="2663190" cy="3215005"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst>
+          <a:reflection stA="45000" endPos="50000" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d extrusionH="114300">
+          <a:extrusionClr>
+            <a:schemeClr val="tx1"/>
+          </a:extrusionClr>
+        </a:sp3d>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="3">
@@ -49629,8 +49690,8 @@
   <sheetPr/>
   <dimension ref="L4:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -49662,7 +49723,7 @@
   <sheetPr/>
   <dimension ref="L4:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -49695,8 +49756,8 @@
   <sheetPr/>
   <dimension ref="N4:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/pinyougou系统架构图.xlsx
+++ b/pinyougou系统架构图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="7860" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="2019-11-8" sheetId="14" r:id="rId1"/>
@@ -114,8 +114,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -137,15 +137,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,14 +188,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,31 +256,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,44 +271,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,13 +281,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,19 +341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,19 +359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,55 +389,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,49 +431,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,17 +610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -645,34 +634,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -693,17 +664,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,16 +727,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -745,115 +745,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -39299,8 +39299,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>572135</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -39310,7 +39310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11144250" y="371475"/>
-          <a:ext cx="1086485" cy="572135"/>
+          <a:ext cx="1086485" cy="781685"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -49756,8 +49756,8 @@
   <sheetPr/>
   <dimension ref="N4:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -49822,8 +49822,8 @@
   <sheetPr/>
   <dimension ref="H2:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -49869,8 +49869,8 @@
   <sheetPr/>
   <dimension ref="H2:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
